--- a/TeleworldShop.Web/UploadedFiles/Excels/SampleProductsToImport.xlsx
+++ b/TeleworldShop.Web/UploadedFiles/Excels/SampleProductsToImport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>Keyword</t>
   </si>
@@ -53,39 +53,15 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Description 2</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
-    <t>Iphone 13</t>
-  </si>
-  <si>
-    <t>New Iphone from Apple</t>
-  </si>
-  <si>
     <t>Desc 1</t>
   </si>
   <si>
-    <t>Iphone</t>
-  </si>
-  <si>
-    <t>Latest product from Apple</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRUE </t>
   </si>
   <si>
-    <t>Iphone 14</t>
-  </si>
-  <si>
-    <t>Iphone 15</t>
-  </si>
-  <si>
-    <t>Iphone 16</t>
-  </si>
-  <si>
     <t>Desc 2</t>
   </si>
   <si>
@@ -99,6 +75,135 @@
   </si>
   <si>
     <t>Content</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>Meta Description 2</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-ferrari-carbon-ceramic-1000gp-soldier_0.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Ferrari Carbon Ceramic</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-ferrari-unico-magic-gold-45-mm-402_MX_0138_WR-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Ferrari Unico Magic</t>
+  </si>
+  <si>
+    <t>Hublot</t>
+  </si>
+  <si>
+    <t>New season Hublot</t>
+  </si>
+  <si>
+    <t>Latest model from Hublot</t>
+  </si>
+  <si>
+    <t>Desc 5</t>
+  </si>
+  <si>
+    <t>Desc 6</t>
+  </si>
+  <si>
+    <t>Desc 7</t>
+  </si>
+  <si>
+    <t>Desc 8</t>
+  </si>
+  <si>
+    <t>Desc 9</t>
+  </si>
+  <si>
+    <t>Desc 10</t>
+  </si>
+  <si>
+    <t>Desc 11</t>
+  </si>
+  <si>
+    <t>Desc 12</t>
+  </si>
+  <si>
+    <t>Desc 13</t>
+  </si>
+  <si>
+    <t>Desc 14</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-ferrari-unico-titanium-45-mm-402_NX_0123_WR-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Ferrari Unico Titannium</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-ferrari-white-gold-1000gp-soldier2.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Ferrari White Gold</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-millennial-pink-soldier-441_UP__7320_NR__GIT20-embeded-profile.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Millenial Pink Soldier</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-one-click-steel-blue-diamonds-39-mm-465_SX_7170_LR_1204-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang One Click Steel Blue</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-one-click-steel-diamonds-39-mm-465_SX_1170_RX_1204-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang One Click Steel Diamond</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/Big-Bang-Sang-Bleu-II-All-Black-45-mm-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Sang Bleu II All Black</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/Big-Bang-Sang-Bleu-II-King-Gold-White-45-mm-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Sang Bleu II King Gold</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/big-bang-sang-bleu-ii-titanium-blue-45-mm-418_NX_5107_RX_MXM20-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Sang Bleu II Titannium Blue</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/Big-Bang-Sang-Bleu-II-Titanium-White-45-mm-soldier-shot.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Sang Bleu II Titannium White</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/Big-Bang-Unico-Camo-Yohji-Yamamoto-45-mm-SD.png</t>
+  </si>
+  <si>
+    <t>Hublot Bigbang Unico Camo Yohji Yamamoto</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/franck-muller-gravity-skeleton-v45.png</t>
+  </si>
+  <si>
+    <t>Frank Muller Gravity Skeleton</t>
+  </si>
+  <si>
+    <t>/UploadedFiles/images/franck-muller-cintree-curvex-ladies-watch-1752-qz-315756.png</t>
+  </si>
+  <si>
+    <t>Frank MullerCintree Curvex Ladies</t>
   </si>
 </sst>
 </file>
@@ -157,9 +262,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M23" totalsRowShown="0">
-  <autoFilter ref="A1:M23"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N23" totalsRowShown="0">
+  <autoFilter ref="A1:N23"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Product name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Warranty"/>
@@ -167,8 +272,9 @@
     <tableColumn id="5" name="Sell price"/>
     <tableColumn id="6" name="Promotion price"/>
     <tableColumn id="7" name="Quantity"/>
-    <tableColumn id="8" name="Description 2"/>
+    <tableColumn id="14" name="ImageUrl"/>
     <tableColumn id="9" name="Keyword"/>
+    <tableColumn id="8" name="Meta Description 2"/>
     <tableColumn id="10" name="Content"/>
     <tableColumn id="11" name="Status"/>
     <tableColumn id="12" name="Home"/>
@@ -441,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,14 +562,15 @@
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="72.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26.21875" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -486,185 +593,640 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>40000000</v>
+        <v>400000000</v>
       </c>
       <c r="E2">
-        <v>45000000</v>
+        <v>450000000</v>
       </c>
       <c r="F2">
-        <v>43900000</v>
+        <v>439000000</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>40000000</v>
+        <v>500000000</v>
       </c>
       <c r="E3">
-        <v>45000000</v>
+        <v>550000000</v>
       </c>
       <c r="F3">
-        <v>43000000</v>
+        <v>530000000</v>
       </c>
       <c r="G3">
         <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>43000000</v>
+        <v>500000000</v>
       </c>
       <c r="E4">
-        <v>48000000</v>
+        <v>550000000</v>
       </c>
       <c r="F4">
-        <v>46900000</v>
+        <v>530000000</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>41000000</v>
+        <v>500000000</v>
       </c>
       <c r="E5">
-        <v>43000000</v>
+        <v>550000000</v>
       </c>
       <c r="F5">
-        <v>41900000</v>
+        <v>530000000</v>
       </c>
       <c r="G5">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>500000000</v>
+      </c>
+      <c r="E6">
+        <v>550000000</v>
+      </c>
+      <c r="F6">
+        <v>530000000</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>500000000</v>
+      </c>
+      <c r="E7">
+        <v>550000000</v>
+      </c>
+      <c r="F7">
+        <v>530000000</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>500000000</v>
+      </c>
+      <c r="E8">
+        <v>550000000</v>
+      </c>
+      <c r="F8">
+        <v>530000000</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>600000000</v>
+      </c>
+      <c r="E9">
+        <v>650000000</v>
+      </c>
+      <c r="F9">
+        <v>630000000</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>600000000</v>
+      </c>
+      <c r="E10">
+        <v>650000000</v>
+      </c>
+      <c r="F10">
+        <v>630000000</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>500000000</v>
+      </c>
+      <c r="E11">
+        <v>550000000</v>
+      </c>
+      <c r="F11">
+        <v>520000000</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>500000000</v>
+      </c>
+      <c r="E12">
+        <v>550000000</v>
+      </c>
+      <c r="F12">
+        <v>510000000</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>500000000</v>
+      </c>
+      <c r="E13">
+        <v>550000000</v>
+      </c>
+      <c r="F13">
+        <v>500000000</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>500000000</v>
+      </c>
+      <c r="E14">
+        <v>550000000</v>
+      </c>
+      <c r="F14">
+        <v>520000000</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>500000000</v>
+      </c>
+      <c r="E15">
+        <v>550000000</v>
+      </c>
+      <c r="F15">
+        <v>510000000</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
         <v>0</v>
       </c>
     </row>
